--- a/covid19/data_covid19_msis_by_time_sex_age_2020-06-24.xlsx
+++ b/covid19/data_covid19_msis_by_time_sex_age_2020-06-24.xlsx
@@ -2518,7 +2518,7 @@
         <v>44010</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3563,7 +3563,7 @@
         <v>44010</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -5653,7 +5653,7 @@
         <v>44010</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -6643,7 +6643,7 @@
         <v>44003</v>
       </c>
       <c r="M114">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
@@ -6698,7 +6698,7 @@
         <v>44010</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -7743,7 +7743,7 @@
         <v>44010</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -8788,7 +8788,7 @@
         <v>44010</v>
       </c>
       <c r="M153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -9778,7 +9778,7 @@
         <v>44003</v>
       </c>
       <c r="M171">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -9833,7 +9833,7 @@
         <v>44010</v>
       </c>
       <c r="M172">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -10878,7 +10878,7 @@
         <v>44010</v>
       </c>
       <c r="M191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -11923,7 +11923,7 @@
         <v>44010</v>
       </c>
       <c r="M210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -12968,7 +12968,7 @@
         <v>44010</v>
       </c>
       <c r="M229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -15003,7 +15003,7 @@
         <v>44003</v>
       </c>
       <c r="M266">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267">
@@ -15058,7 +15058,7 @@
         <v>44010</v>
       </c>
       <c r="M267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -18193,7 +18193,7 @@
         <v>44010</v>
       </c>
       <c r="M324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -20283,7 +20283,7 @@
         <v>44010</v>
       </c>
       <c r="M362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
